--- a/excel_workspace.xlsx
+++ b/excel_workspace.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\veron\Documents\Python\DSI Course\lover-recommendation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAE5465-1CAD-43D7-8CD9-C2B5DE29F309}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544CAFDB-3E2D-423A-8258-DC9A6171A1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{FEA83C96-2C32-4962-9AE4-5542AA27BD16}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="109">
   <si>
     <t>doesn't have kids                          7432</t>
   </si>
@@ -358,12 +358,30 @@
   <si>
     <t>1 = positive</t>
   </si>
+  <si>
+    <t>likes dogs and cats</t>
+  </si>
+  <si>
+    <t>dislikes dogs and cats</t>
+  </si>
+  <si>
+    <t>likes dogs</t>
+  </si>
+  <si>
+    <t>likes cats</t>
+  </si>
+  <si>
+    <t>what does it mean to not want kids? "doesn't want kids", "doesn't have kids and doesn't want any"</t>
+  </si>
+  <si>
+    <t>in the moment? Or for the rest of their life?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,8 +394,20 @@
       <color theme="1"/>
       <name val="Var(--jp-code-font-family)"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Var(--jp-code-font-family)"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,6 +450,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -433,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -472,6 +508,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -787,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB4639-A485-4E2A-A97F-6B6599F4E74F}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -908,7 +951,7 @@
       <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="16">
@@ -956,6 +999,16 @@
       </c>
       <c r="C16" s="16">
         <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -966,234 +1019,280 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FC0B21-459B-4E86-B3F3-F324BF8CD3B5}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.54296875" customWidth="1"/>
-    <col min="3" max="4" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="31.54296875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="31.54296875" customWidth="1"/>
+    <col min="4" max="5" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:8">
+      <c r="C1" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>97</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
+      <c r="B2" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
+      <c r="B3" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
+      <c r="B4" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
+      <c r="B5" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
+      <c r="B6" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
+      <c r="B7" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
+      <c r="B8" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
+      <c r="B9" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
+      <c r="B10" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
+      <c r="B11" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
+      <c r="B12" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
+      <c r="B13" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
+      <c r="B14" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
+      <c r="B15" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
+      <c r="B16" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1206,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FDC52C-233F-4296-BB07-9277E582F571}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1220,7 +1319,7 @@
       <c r="A1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="17" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1228,7 +1327,7 @@
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="17" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1236,7 +1335,7 @@
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="17" t="s">
         <v>91</v>
       </c>
     </row>

--- a/excel_workspace.xlsx
+++ b/excel_workspace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\veron\Documents\Python\DSI Course\lover-recommendation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544CAFDB-3E2D-423A-8258-DC9A6171A1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CC82F1-3270-45FE-823F-23215BF839BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{FEA83C96-2C32-4962-9AE4-5542AA27BD16}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{FEA83C96-2C32-4962-9AE4-5542AA27BD16}"/>
   </bookViews>
   <sheets>
     <sheet name="offspring" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="110">
   <si>
     <t>doesn't have kids                          7432</t>
   </si>
@@ -375,6 +375,9 @@
   </si>
   <si>
     <t>in the moment? Or for the rest of their life?</t>
+  </si>
+  <si>
+    <t>-- nulls aren't clear-- do they not have pets bc they don't like pets? Or bc their place can't have pets? Allergic?</t>
   </si>
 </sst>
 </file>
@@ -469,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -514,6 +517,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -832,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB4639-A485-4E2A-A97F-6B6599F4E74F}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1019,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FC0B21-459B-4E86-B3F3-F324BF8CD3B5}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1296,6 +1302,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1305,9 +1316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FDC52C-233F-4296-BB07-9277E582F571}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>

--- a/excel_workspace.xlsx
+++ b/excel_workspace.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\veron\Documents\Python\DSI Course\lover-recommendation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CC82F1-3270-45FE-823F-23215BF839BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F64D77D-C3A8-479E-96C3-EFD6466D18DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{FEA83C96-2C32-4962-9AE4-5542AA27BD16}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="3" xr2:uid="{FEA83C96-2C32-4962-9AE4-5542AA27BD16}"/>
   </bookViews>
   <sheets>
     <sheet name="offspring" sheetId="1" r:id="rId1"/>
     <sheet name="pets" sheetId="2" r:id="rId2"/>
-    <sheet name="religion" sheetId="3" r:id="rId3"/>
-    <sheet name="null_values" sheetId="4" r:id="rId4"/>
+    <sheet name="body type" sheetId="5" r:id="rId3"/>
+    <sheet name="religion" sheetId="3" r:id="rId4"/>
+    <sheet name="null_values" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="151">
   <si>
     <t>doesn't have kids                          7432</t>
   </si>
@@ -378,6 +379,129 @@
   </si>
   <si>
     <t>-- nulls aren't clear-- do they not have pets bc they don't like pets? Or bc their place can't have pets? Allergic?</t>
+  </si>
+  <si>
+    <t>average           14088</t>
+  </si>
+  <si>
+    <t>fit               12336</t>
+  </si>
+  <si>
+    <t>athletic          11570</t>
+  </si>
+  <si>
+    <t>rather not say     5040</t>
+  </si>
+  <si>
+    <t>thin               4499</t>
+  </si>
+  <si>
+    <t>curvy              3695</t>
+  </si>
+  <si>
+    <t>a little extra     2508</t>
+  </si>
+  <si>
+    <t>skinny             1652</t>
+  </si>
+  <si>
+    <t>full figured        957</t>
+  </si>
+  <si>
+    <t>overweight          402</t>
+  </si>
+  <si>
+    <t>jacked              397</t>
+  </si>
+  <si>
+    <t>used up             329</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>rather not say</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>full figured</t>
+  </si>
+  <si>
+    <t>used up</t>
+  </si>
+  <si>
+    <t>doesn't have kids                          41250</t>
+  </si>
+  <si>
+    <t>doesn't have kids, but might want them      3799</t>
+  </si>
+  <si>
+    <t>doesn't have kids, but wants them           3504</t>
+  </si>
+  <si>
+    <t>doesn't want kids                           2686</t>
+  </si>
+  <si>
+    <t>has kids                                    1819</t>
+  </si>
+  <si>
+    <t>has a kid                                   1808</t>
+  </si>
+  <si>
+    <t>doesn't have kids, and doesn't want any     1080</t>
+  </si>
+  <si>
+    <t>has kids, but doesn't want more              433</t>
+  </si>
+  <si>
+    <t>has a kid, but doesn't want more             269</t>
+  </si>
+  <si>
+    <t>has a kid, and might want more               223</t>
+  </si>
+  <si>
+    <t>wants kids                                   221</t>
+  </si>
+  <si>
+    <t>might want kids                              179</t>
+  </si>
+  <si>
+    <t>has kids, and might want more                113</t>
+  </si>
+  <si>
+    <t>has a kid, and wants more                     68</t>
+  </si>
+  <si>
+    <t>has kids, and wants more                      21</t>
+  </si>
+  <si>
+    <t>doesn't have kid(s), but wants kid(s)</t>
+  </si>
+  <si>
+    <t>has kid(s)</t>
+  </si>
+  <si>
+    <t>has kid(s), but doesn't want more</t>
+  </si>
+  <si>
+    <t>has kid(s) and wants more</t>
+  </si>
+  <si>
+    <t>Do you have kids?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Do you want [more] kids?</t>
   </si>
 </sst>
 </file>
@@ -836,16 +960,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB4639-A485-4E2A-A97F-6B6599F4E74F}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="39.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.08984375" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1007,15 +1131,195 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>108</v>
       </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1027,7 +1331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FC0B21-459B-4E86-B3F3-F324BF8CD3B5}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -1313,10 +1617,128 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4148F4-42F2-4F8F-B746-E9612CAAEB5A}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FDC52C-233F-4296-BB07-9277E582F571}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -1433,7 +1855,7 @@
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="10" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1473,7 +1895,7 @@
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1583,7 +2005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4A96FC-1907-4B07-B9E6-5AFF66DBB684}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/excel_workspace.xlsx
+++ b/excel_workspace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\veron\Documents\Python\DSI Course\lover-recommendation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F64D77D-C3A8-479E-96C3-EFD6466D18DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05003F86-6A67-4549-AFC0-13BEBB44C414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="3" xr2:uid="{FEA83C96-2C32-4962-9AE4-5542AA27BD16}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{FEA83C96-2C32-4962-9AE4-5542AA27BD16}"/>
   </bookViews>
   <sheets>
     <sheet name="offspring" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="152">
   <si>
     <t>doesn't have kids                          7432</t>
   </si>
@@ -502,6 +502,9 @@
   </si>
   <si>
     <t>Do you want [more] kids?</t>
+  </si>
+  <si>
+    <t>wants kid(s)</t>
   </si>
 </sst>
 </file>
@@ -962,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB4639-A485-4E2A-A97F-6B6599F4E74F}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1268,14 +1271,18 @@
       <c r="A35" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4">
@@ -1736,7 +1743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FDC52C-233F-4296-BB07-9277E582F571}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>

--- a/excel_workspace.xlsx
+++ b/excel_workspace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\veron\Documents\Python\DSI Course\lover-recommendation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05003F86-6A67-4549-AFC0-13BEBB44C414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F7529D-15DE-442F-9848-3B3F2A35123B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{FEA83C96-2C32-4962-9AE4-5542AA27BD16}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="4" xr2:uid="{FEA83C96-2C32-4962-9AE4-5542AA27BD16}"/>
   </bookViews>
   <sheets>
     <sheet name="offspring" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="153">
   <si>
     <t>doesn't have kids                          7432</t>
   </si>
@@ -505,6 +505,9 @@
   </si>
   <si>
     <t>wants kid(s)</t>
+  </si>
+  <si>
+    <t>- could've label encoded, but didn't wanna give "hierarchy" to certain values</t>
   </si>
 </sst>
 </file>
@@ -599,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -648,6 +651,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -965,7 +971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB4639-A485-4E2A-A97F-6B6599F4E74F}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -2014,9 +2020,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4A96FC-1907-4B07-B9E6-5AFF66DBB684}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -2029,6 +2037,11 @@
         <v>44</v>
       </c>
     </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="21" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
